--- a/BLACK_SUNRISE_YCbCr/0_Degree_GLCM/B_resmat.xlsx
+++ b/BLACK_SUNRISE_YCbCr/0_Degree_GLCM/B_resmat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4TH YEAR\Project_1\MATRICES_WORKSPACES\BLACK_SUNRISE_YCbCr\0_Degree_GLCM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F311068-EB3D-4F18-AAA5-DB8847C94C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +336,5621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="B381" sqref="B381"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3.2239977572189515E-4</v>
+      </c>
+      <c r="B3">
+        <v>0.35195143605058937</v>
+      </c>
+      <c r="C3">
+        <v>0.99918021093211928</v>
+      </c>
+      <c r="D3">
+        <v>0.9998388001121391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1.1988011988011988E-4</v>
+      </c>
+      <c r="B4">
+        <v>0.11105116700898633</v>
+      </c>
+      <c r="C4">
+        <v>0.99974527821080017</v>
+      </c>
+      <c r="D4">
+        <v>0.99994005994005997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.0469909233426862E-4</v>
+      </c>
+      <c r="B5">
+        <v>0.71907569532926374</v>
+      </c>
+      <c r="C5">
+        <v>0.99906668000260357</v>
+      </c>
+      <c r="D5">
+        <v>0.99989765045383283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4.8681309240857938E-4</v>
+      </c>
+      <c r="B6">
+        <v>0.3105673182683667</v>
+      </c>
+      <c r="C6">
+        <v>0.99880731711242543</v>
+      </c>
+      <c r="D6">
+        <v>0.99975659345379564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6.020469596628537E-5</v>
+      </c>
+      <c r="B7">
+        <v>0.5356841814144655</v>
+      </c>
+      <c r="C7">
+        <v>0.99981013568315735</v>
+      </c>
+      <c r="D7">
+        <v>0.99996989765201683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2.7105853780182368E-5</v>
+      </c>
+      <c r="B8">
+        <v>0.6153710619801358</v>
+      </c>
+      <c r="C8">
+        <v>0.99990242214449698</v>
+      </c>
+      <c r="D8">
+        <v>0.99998644707310991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.1701595591652467E-3</v>
+      </c>
+      <c r="B9">
+        <v>0.26567491100025858</v>
+      </c>
+      <c r="C9">
+        <v>0.99252278392827442</v>
+      </c>
+      <c r="D9">
+        <v>0.99841492022041733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.6373400864515565E-4</v>
+      </c>
+      <c r="B10">
+        <v>0.16658479161890621</v>
+      </c>
+      <c r="C10">
+        <v>0.99963983129216061</v>
+      </c>
+      <c r="D10">
+        <v>0.99991813299567744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8.8919817521070131E-4</v>
+      </c>
+      <c r="B11">
+        <v>0.38213997298561442</v>
+      </c>
+      <c r="C11">
+        <v>0.99767251521387124</v>
+      </c>
+      <c r="D11">
+        <v>0.99955540091239459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3.856868555699841E-4</v>
+      </c>
+      <c r="B12">
+        <v>0.37085162422774348</v>
+      </c>
+      <c r="C12">
+        <v>0.99900143556545107</v>
+      </c>
+      <c r="D12">
+        <v>0.99980715657221508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.5362634999155054E-5</v>
+      </c>
+      <c r="B13">
+        <v>0.66665898517215494</v>
+      </c>
+      <c r="C13">
+        <v>0.99993855075806148</v>
+      </c>
+      <c r="D13">
+        <v>0.99999231868250049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9.6549560096066816E-5</v>
+      </c>
+      <c r="B14">
+        <v>0.33328505505735057</v>
+      </c>
+      <c r="C14">
+        <v>0.99975864590862207</v>
+      </c>
+      <c r="D14">
+        <v>0.9999517252199519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1.1315142894090263E-4</v>
+      </c>
+      <c r="B15">
+        <v>0.15994342047478299</v>
+      </c>
+      <c r="C15">
+        <v>0.99975216636482722</v>
+      </c>
+      <c r="D15">
+        <v>0.99994342428552951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1.796041524480046E-5</v>
+      </c>
+      <c r="B16">
+        <v>-8.9802882672533773E-6</v>
+      </c>
+      <c r="C16">
+        <v>0.99996407965337508</v>
+      </c>
+      <c r="D16">
+        <v>0.99999101979237759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1.2803277639075603E-5</v>
+      </c>
+      <c r="B17">
+        <v>0.49999359827921747</v>
+      </c>
+      <c r="C17">
+        <v>0.9999615906588547</v>
+      </c>
+      <c r="D17">
+        <v>0.99999359836118051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3.5795080324160246E-4</v>
+      </c>
+      <c r="B18">
+        <v>0.58082653470771739</v>
+      </c>
+      <c r="C18">
+        <v>0.99878823299728037</v>
+      </c>
+      <c r="D18">
+        <v>0.99982102459837918</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7.1439562130437648E-5</v>
+      </c>
+      <c r="B19">
+        <v>0.13329761208001192</v>
+      </c>
+      <c r="C19">
+        <v>0.99984613867485805</v>
+      </c>
+      <c r="D19">
+        <v>0.99996428021893469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1.8123186069009995E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.75003582141820191</v>
+      </c>
+      <c r="C21">
+        <v>0.90970213086805862</v>
+      </c>
+      <c r="D21">
+        <v>0.99093840696549507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7.2170671742406213E-4</v>
+      </c>
+      <c r="B22">
+        <v>0.10748213788169207</v>
+      </c>
+      <c r="C22">
+        <v>0.99847019534901116</v>
+      </c>
+      <c r="D22">
+        <v>0.99963914664128795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1.3556894192277686E-3</v>
+      </c>
+      <c r="B23">
+        <v>0.73231791116069045</v>
+      </c>
+      <c r="C23">
+        <v>0.99358159811520452</v>
+      </c>
+      <c r="D23">
+        <v>0.99932215529038604</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3.1688690306429636E-6</v>
+      </c>
+      <c r="B24">
+        <v>-1.5844370257581925E-6</v>
+      </c>
+      <c r="C24">
+        <v>0.99999366227700137</v>
+      </c>
+      <c r="D24">
+        <v>0.99999841556548474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1.4672400708322794E-3</v>
+      </c>
+      <c r="B25">
+        <v>0.88201108705791442</v>
+      </c>
+      <c r="C25">
+        <v>0.9860995064268131</v>
+      </c>
+      <c r="D25">
+        <v>0.9992663799645839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>3.5802928766443284E-3</v>
+      </c>
+      <c r="B26">
+        <v>0.73887529303059762</v>
+      </c>
+      <c r="C26">
+        <v>0.98272167615329931</v>
+      </c>
+      <c r="D26">
+        <v>0.9982098535616778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1.2939262333935457E-3</v>
+      </c>
+      <c r="B27">
+        <v>0.70912170643232764</v>
+      </c>
+      <c r="C27">
+        <v>0.99425940565681981</v>
+      </c>
+      <c r="D27">
+        <v>0.99935303688330324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4.2803821525185766E-5</v>
+      </c>
+      <c r="B28">
+        <v>0.90521444631823234</v>
+      </c>
+      <c r="C28">
+        <v>0.99952069502850005</v>
+      </c>
+      <c r="D28">
+        <v>0.99997859808923739</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1.5294378551163519E-5</v>
+      </c>
+      <c r="B29">
+        <v>0.3333256860563375</v>
+      </c>
+      <c r="C29">
+        <v>0.99996176455069774</v>
+      </c>
+      <c r="D29">
+        <v>0.99999235281072441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2.9570650867788888E-3</v>
+      </c>
+      <c r="B30">
+        <v>0.48586507639190002</v>
+      </c>
+      <c r="C30">
+        <v>0.99130047085796114</v>
+      </c>
+      <c r="D30">
+        <v>0.99852146745661052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>6.3500347947112034E-4</v>
+      </c>
+      <c r="B31">
+        <v>0.75127768518679428</v>
+      </c>
+      <c r="C31">
+        <v>0.99681994151607112</v>
+      </c>
+      <c r="D31">
+        <v>0.99968249826026445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4.3621453030600449E-4</v>
+      </c>
+      <c r="B32">
+        <v>0.15471141389301471</v>
+      </c>
+      <c r="C32">
+        <v>0.99904792178322466</v>
+      </c>
+      <c r="D32">
+        <v>0.99978189273484697</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1.0909477941567771E-3</v>
+      </c>
+      <c r="B33">
+        <v>0.56016813364423623</v>
+      </c>
+      <c r="C33">
+        <v>0.99642986776252562</v>
+      </c>
+      <c r="D33">
+        <v>0.99945452610292163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>5.7664486419300286E-3</v>
+      </c>
+      <c r="B34">
+        <v>0.84393855806254792</v>
+      </c>
+      <c r="C34">
+        <v>0.95732066879592692</v>
+      </c>
+      <c r="D34">
+        <v>0.99711677567903501</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1.4085001756234634E-2</v>
+      </c>
+      <c r="B35">
+        <v>0.78856535812170059</v>
+      </c>
+      <c r="C35">
+        <v>0.9194970466292598</v>
+      </c>
+      <c r="D35">
+        <v>0.99295749912188269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>8.0469860379566924E-4</v>
+      </c>
+      <c r="B36">
+        <v>0.7079304282305664</v>
+      </c>
+      <c r="C36">
+        <v>0.99644078824292681</v>
+      </c>
+      <c r="D36">
+        <v>0.99959765069810225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1.5825646590703562E-4</v>
+      </c>
+      <c r="B37">
+        <v>0.63940219913793617</v>
+      </c>
+      <c r="C37">
+        <v>0.99940326836341731</v>
+      </c>
+      <c r="D37">
+        <v>0.99992087176704647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>7.1860242985815411E-4</v>
+      </c>
+      <c r="B38">
+        <v>0.75212660062819836</v>
+      </c>
+      <c r="C38">
+        <v>0.99638938913243003</v>
+      </c>
+      <c r="D38">
+        <v>0.99964069878507089</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4.2427121685999717E-3</v>
+      </c>
+      <c r="B39">
+        <v>0.50439304387279882</v>
+      </c>
+      <c r="C39">
+        <v>0.9872146522080687</v>
+      </c>
+      <c r="D39">
+        <v>0.99787864391569991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6.5730172666081353E-3</v>
+      </c>
+      <c r="B40">
+        <v>0.54806541281940513</v>
+      </c>
+      <c r="C40">
+        <v>0.97892723899653389</v>
+      </c>
+      <c r="D40">
+        <v>0.99671349136669596</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2.1530664635055233E-4</v>
+      </c>
+      <c r="B41">
+        <v>0.84513036697848687</v>
+      </c>
+      <c r="C41">
+        <v>0.99839449526984247</v>
+      </c>
+      <c r="D41">
+        <v>0.99989234667682481</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3.9993029537335537E-3</v>
+      </c>
+      <c r="B42">
+        <v>0.24553600391844305</v>
+      </c>
+      <c r="C42">
+        <v>0.99071583818314157</v>
+      </c>
+      <c r="D42">
+        <v>0.99800034852313324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2.291825821237586E-4</v>
+      </c>
+      <c r="B43">
+        <v>0.7498853561601958</v>
+      </c>
+      <c r="C43">
+        <v>0.99885455981128468</v>
+      </c>
+      <c r="D43">
+        <v>0.99988540870893805</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1.2122303653315969E-4</v>
+      </c>
+      <c r="B44">
+        <v>0.14632441933620577</v>
+      </c>
+      <c r="C44">
+        <v>0.99973679761856538</v>
+      </c>
+      <c r="D44">
+        <v>0.99993938848173347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1.2704391235464682E-4</v>
+      </c>
+      <c r="B45">
+        <v>0.14993647329636328</v>
+      </c>
+      <c r="C45">
+        <v>0.99972351997115949</v>
+      </c>
+      <c r="D45">
+        <v>0.99993647804382269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1.9046357177164247E-4</v>
+      </c>
+      <c r="B46">
+        <v>0.47717747813411088</v>
+      </c>
+      <c r="C46">
+        <v>0.99944527399173733</v>
+      </c>
+      <c r="D46">
+        <v>0.99990476821411423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>4.2045715159391483E-4</v>
+      </c>
+      <c r="B47">
+        <v>0.36025481857399133</v>
+      </c>
+      <c r="C47">
+        <v>0.9989224936560912</v>
+      </c>
+      <c r="D47">
+        <v>0.99978977142420311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2.0816628631345217E-4</v>
+      </c>
+      <c r="B48">
+        <v>0.64924653530335064</v>
+      </c>
+      <c r="C48">
+        <v>0.99919839385352005</v>
+      </c>
+      <c r="D48">
+        <v>0.9998959168568432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>9.1818166641625352E-5</v>
+      </c>
+      <c r="B49">
+        <v>0.55995408612607955</v>
+      </c>
+      <c r="C49">
+        <v>0.99969953438565695</v>
+      </c>
+      <c r="D49">
+        <v>0.99995409091667919</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>6.0829100641747015E-5</v>
+      </c>
+      <c r="B50">
+        <v>0.55552513892374111</v>
+      </c>
+      <c r="C50">
+        <v>0.99980231848917311</v>
+      </c>
+      <c r="D50">
+        <v>0.99996958544967918</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5.4066579130300458E-5</v>
+      </c>
+      <c r="B51">
+        <v>0.46151142689163055</v>
+      </c>
+      <c r="C51">
+        <v>0.99984553202384263</v>
+      </c>
+      <c r="D51">
+        <v>0.9999729667104349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>9.7401624359397013E-5</v>
+      </c>
+      <c r="B52">
+        <v>0.2352454137331374</v>
+      </c>
+      <c r="C52">
+        <v>0.99977524461951639</v>
+      </c>
+      <c r="D52">
+        <v>0.99995129918782022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1.4488554042306579E-4</v>
+      </c>
+      <c r="B53">
+        <v>0.23992755032392632</v>
+      </c>
+      <c r="C53">
+        <v>0.9996645147540083</v>
+      </c>
+      <c r="D53">
+        <v>0.99992755722978843</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1.1312729082763926E-4</v>
+      </c>
+      <c r="B54">
+        <v>0.8255248133539822</v>
+      </c>
+      <c r="C54">
+        <v>0.99923849937823328</v>
+      </c>
+      <c r="D54">
+        <v>0.99994343635458627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>5.4084959745337104E-5</v>
+      </c>
+      <c r="B55">
+        <v>0.84088204383172105</v>
+      </c>
+      <c r="C55">
+        <v>0.99960601314861008</v>
+      </c>
+      <c r="D55">
+        <v>0.99997295752012738</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1.4697236919459142E-4</v>
+      </c>
+      <c r="B56">
+        <v>0.63629013532543433</v>
+      </c>
+      <c r="C56">
+        <v>0.99944895689471502</v>
+      </c>
+      <c r="D56">
+        <v>0.99992651381540276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1.3008130081300813E-5</v>
+      </c>
+      <c r="B57">
+        <v>-6.5041073437876028E-6</v>
+      </c>
+      <c r="C57">
+        <v>0.99997398399365456</v>
+      </c>
+      <c r="D57">
+        <v>0.99999349593495934</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1.169366841008632E-4</v>
+      </c>
+      <c r="B58">
+        <v>0.49230750918475458</v>
+      </c>
+      <c r="C58">
+        <v>0.99965277368996142</v>
+      </c>
+      <c r="D58">
+        <v>0.99994153165794952</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2.6860780574283487E-5</v>
+      </c>
+      <c r="B59">
+        <v>0.19998656938423987</v>
+      </c>
+      <c r="C59">
+        <v>0.99993956452888233</v>
+      </c>
+      <c r="D59">
+        <v>0.99998656960971288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>8.2024361235286881E-5</v>
+      </c>
+      <c r="B60">
+        <v>0.53842052263626583</v>
+      </c>
+      <c r="C60">
+        <v>0.99974027870951876</v>
+      </c>
+      <c r="D60">
+        <v>0.99995898781938231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>5.6615876524691119E-2</v>
+      </c>
+      <c r="B61">
+        <v>0.83503085790861342</v>
+      </c>
+      <c r="C61">
+        <v>0.6033991567163125</v>
+      </c>
+      <c r="D61">
+        <v>0.97169206173765443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>3.1752166651620478E-2</v>
+      </c>
+      <c r="B62">
+        <v>0.88226802787640946</v>
+      </c>
+      <c r="C62">
+        <v>0.69955813189781357</v>
+      </c>
+      <c r="D62">
+        <v>0.98412391667418975</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>3.8458066263428722E-2</v>
+      </c>
+      <c r="B63">
+        <v>0.84830760625366497</v>
+      </c>
+      <c r="C63">
+        <v>0.70949481868816944</v>
+      </c>
+      <c r="D63">
+        <v>0.9807709668682858</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>4.0722632959694735E-2</v>
+      </c>
+      <c r="B64">
+        <v>0.83018434224975435</v>
+      </c>
+      <c r="C64">
+        <v>0.72113088727425667</v>
+      </c>
+      <c r="D64">
+        <v>0.9796386835201526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>3.366728003816534E-2</v>
+      </c>
+      <c r="B65">
+        <v>0.82593511824351562</v>
+      </c>
+      <c r="C65">
+        <v>0.77404848039283669</v>
+      </c>
+      <c r="D65">
+        <v>0.98316635998091728</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>3.3590843126343473E-2</v>
+      </c>
+      <c r="B66">
+        <v>0.86001363024240374</v>
+      </c>
+      <c r="C66">
+        <v>0.72758007820934401</v>
+      </c>
+      <c r="D66">
+        <v>0.98320457843682829</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4.7314564501140494E-2</v>
+      </c>
+      <c r="B67">
+        <v>0.83973848585876043</v>
+      </c>
+      <c r="C67">
+        <v>0.65969072306775955</v>
+      </c>
+      <c r="D67">
+        <v>0.97634271774942971</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4.3824190451252507E-2</v>
+      </c>
+      <c r="B68">
+        <v>0.86218962648538933</v>
+      </c>
+      <c r="C68">
+        <v>0.64009291183693473</v>
+      </c>
+      <c r="D68">
+        <v>0.97808790477437368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4.7326838817936048E-2</v>
+      </c>
+      <c r="B69">
+        <v>0.85485620020903585</v>
+      </c>
+      <c r="C69">
+        <v>0.62884448901966938</v>
+      </c>
+      <c r="D69">
+        <v>0.97633658059103201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4.4124260083513056E-2</v>
+      </c>
+      <c r="B70">
+        <v>0.83613749178655239</v>
+      </c>
+      <c r="C70">
+        <v>0.68854744770476928</v>
+      </c>
+      <c r="D70">
+        <v>0.9779378699582435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4.5998724693129281E-2</v>
+      </c>
+      <c r="B71">
+        <v>0.83972303042617435</v>
+      </c>
+      <c r="C71">
+        <v>0.66912194320324281</v>
+      </c>
+      <c r="D71">
+        <v>0.97700063765343537</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2.5251822744607112E-2</v>
+      </c>
+      <c r="B72">
+        <v>0.85560308883268843</v>
+      </c>
+      <c r="C72">
+        <v>0.80050823806877047</v>
+      </c>
+      <c r="D72">
+        <v>0.98737408862769638</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>5.3287880147124787E-2</v>
+      </c>
+      <c r="B73">
+        <v>0.83335171920594608</v>
+      </c>
+      <c r="C73">
+        <v>0.62978923343640736</v>
+      </c>
+      <c r="D73">
+        <v>0.9733560599264377</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>6.1915066613590364E-2</v>
+      </c>
+      <c r="B74">
+        <v>0.83590111936313749</v>
+      </c>
+      <c r="C74">
+        <v>0.56461590339470025</v>
+      </c>
+      <c r="D74">
+        <v>0.96904246669320482</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>4.7282076148336717E-2</v>
+      </c>
+      <c r="B75">
+        <v>0.82729044552248931</v>
+      </c>
+      <c r="C75">
+        <v>0.68118732403685955</v>
+      </c>
+      <c r="D75">
+        <v>0.97635896192583171</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>5.437451716146121E-2</v>
+      </c>
+      <c r="B76">
+        <v>0.83931681395547941</v>
+      </c>
+      <c r="C76">
+        <v>0.61018662435165505</v>
+      </c>
+      <c r="D76">
+        <v>0.97281274141926943</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4.2571137564453493E-2</v>
+      </c>
+      <c r="B77">
+        <v>0.84178497489915738</v>
+      </c>
+      <c r="C77">
+        <v>0.69017177895128101</v>
+      </c>
+      <c r="D77">
+        <v>0.97871443121777335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>4.9791677963957129E-2</v>
+      </c>
+      <c r="B78">
+        <v>0.85605993532207036</v>
+      </c>
+      <c r="C78">
+        <v>0.60676890691741636</v>
+      </c>
+      <c r="D78">
+        <v>0.97510416101802144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>8.9301414959309697E-2</v>
+      </c>
+      <c r="B79">
+        <v>0.79831111450939796</v>
+      </c>
+      <c r="C79">
+        <v>0.47590525542289419</v>
+      </c>
+      <c r="D79">
+        <v>0.95534929252034517</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>6.5641058581706074E-2</v>
+      </c>
+      <c r="B80">
+        <v>0.84993406974999919</v>
+      </c>
+      <c r="C80">
+        <v>0.50125363232575004</v>
+      </c>
+      <c r="D80">
+        <v>0.967179470709147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>5.6615876524691119E-2</v>
+      </c>
+      <c r="B81">
+        <v>0.83503085790861342</v>
+      </c>
+      <c r="C81">
+        <v>0.6033991567163125</v>
+      </c>
+      <c r="D81">
+        <v>0.97169206173765443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>3.1752166651620478E-2</v>
+      </c>
+      <c r="B82">
+        <v>0.88226802787640946</v>
+      </c>
+      <c r="C82">
+        <v>0.69955813189781357</v>
+      </c>
+      <c r="D82">
+        <v>0.98412391667418975</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>3.8458066263428722E-2</v>
+      </c>
+      <c r="B83">
+        <v>0.84830760625366497</v>
+      </c>
+      <c r="C83">
+        <v>0.70949481868816944</v>
+      </c>
+      <c r="D83">
+        <v>0.9807709668682858</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4.0722632959694735E-2</v>
+      </c>
+      <c r="B84">
+        <v>0.83018434224975435</v>
+      </c>
+      <c r="C84">
+        <v>0.72113088727425667</v>
+      </c>
+      <c r="D84">
+        <v>0.9796386835201526</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>3.366728003816534E-2</v>
+      </c>
+      <c r="B85">
+        <v>0.82593511824351562</v>
+      </c>
+      <c r="C85">
+        <v>0.77404848039283669</v>
+      </c>
+      <c r="D85">
+        <v>0.98316635998091728</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>3.3590843126343473E-2</v>
+      </c>
+      <c r="B86">
+        <v>0.86001363024240374</v>
+      </c>
+      <c r="C86">
+        <v>0.72758007820934401</v>
+      </c>
+      <c r="D86">
+        <v>0.98320457843682829</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>4.7314564501140494E-2</v>
+      </c>
+      <c r="B87">
+        <v>0.83973848585876043</v>
+      </c>
+      <c r="C87">
+        <v>0.65969072306775955</v>
+      </c>
+      <c r="D87">
+        <v>0.97634271774942971</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>4.3824190451252507E-2</v>
+      </c>
+      <c r="B88">
+        <v>0.86218962648538933</v>
+      </c>
+      <c r="C88">
+        <v>0.64009291183693473</v>
+      </c>
+      <c r="D88">
+        <v>0.97808790477437368</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>4.7326838817936048E-2</v>
+      </c>
+      <c r="B89">
+        <v>0.85485620020903585</v>
+      </c>
+      <c r="C89">
+        <v>0.62884448901966938</v>
+      </c>
+      <c r="D89">
+        <v>0.97633658059103201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>4.4124260083513056E-2</v>
+      </c>
+      <c r="B90">
+        <v>0.83613749178655239</v>
+      </c>
+      <c r="C90">
+        <v>0.68854744770476928</v>
+      </c>
+      <c r="D90">
+        <v>0.9779378699582435</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>4.5998724693129281E-2</v>
+      </c>
+      <c r="B91">
+        <v>0.83972303042617435</v>
+      </c>
+      <c r="C91">
+        <v>0.66912194320324281</v>
+      </c>
+      <c r="D91">
+        <v>0.97700063765343537</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2.5251822744607112E-2</v>
+      </c>
+      <c r="B92">
+        <v>0.85560308883268843</v>
+      </c>
+      <c r="C92">
+        <v>0.80050823806877047</v>
+      </c>
+      <c r="D92">
+        <v>0.98737408862769638</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>5.3287880147124787E-2</v>
+      </c>
+      <c r="B93">
+        <v>0.83335171920594608</v>
+      </c>
+      <c r="C93">
+        <v>0.62978923343640736</v>
+      </c>
+      <c r="D93">
+        <v>0.9733560599264377</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>6.1915066613590364E-2</v>
+      </c>
+      <c r="B94">
+        <v>0.83590111936313749</v>
+      </c>
+      <c r="C94">
+        <v>0.56461590339470025</v>
+      </c>
+      <c r="D94">
+        <v>0.96904246669320482</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>4.7282076148336717E-2</v>
+      </c>
+      <c r="B95">
+        <v>0.82729044552248931</v>
+      </c>
+      <c r="C95">
+        <v>0.68118732403685955</v>
+      </c>
+      <c r="D95">
+        <v>0.97635896192583171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>5.437451716146121E-2</v>
+      </c>
+      <c r="B96">
+        <v>0.83931681395547941</v>
+      </c>
+      <c r="C96">
+        <v>0.61018662435165505</v>
+      </c>
+      <c r="D96">
+        <v>0.97281274141926943</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>4.2571137564453493E-2</v>
+      </c>
+      <c r="B97">
+        <v>0.84178497489915738</v>
+      </c>
+      <c r="C97">
+        <v>0.69017177895128101</v>
+      </c>
+      <c r="D97">
+        <v>0.97871443121777335</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>4.9791677963957129E-2</v>
+      </c>
+      <c r="B98">
+        <v>0.85605993532207036</v>
+      </c>
+      <c r="C98">
+        <v>0.60676890691741636</v>
+      </c>
+      <c r="D98">
+        <v>0.97510416101802144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>8.9301414959309697E-2</v>
+      </c>
+      <c r="B99">
+        <v>0.79831111450939796</v>
+      </c>
+      <c r="C99">
+        <v>0.47590525542289419</v>
+      </c>
+      <c r="D99">
+        <v>0.95534929252034517</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>6.5641058581706074E-2</v>
+      </c>
+      <c r="B100">
+        <v>0.84993406974999919</v>
+      </c>
+      <c r="C100">
+        <v>0.50125363232575004</v>
+      </c>
+      <c r="D100">
+        <v>0.967179470709147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1.7397557382943433E-5</v>
+      </c>
+      <c r="B101">
+        <v>0.57734189861845542</v>
+      </c>
+      <c r="C101">
+        <v>0.9999420092854957</v>
+      </c>
+      <c r="D101">
+        <v>0.99999130122130853</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>3.3832192326062728E-4</v>
+      </c>
+      <c r="B102">
+        <v>0.57491073655976754</v>
+      </c>
+      <c r="C102">
+        <v>0.99886605789139649</v>
+      </c>
+      <c r="D102">
+        <v>0.99983083903836978</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>1.0741138560687433E-3</v>
+      </c>
+      <c r="B103">
+        <v>0.79954363737088707</v>
+      </c>
+      <c r="C103">
+        <v>0.99357089503452556</v>
+      </c>
+      <c r="D103">
+        <v>0.9994629430719657</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>9.7495183044315993E-4</v>
+      </c>
+      <c r="B104">
+        <v>0.80063724691864191</v>
+      </c>
+      <c r="C104">
+        <v>0.99414011819082937</v>
+      </c>
+      <c r="D104">
+        <v>0.99951252408477842</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1.2981887670322366E-3</v>
+      </c>
+      <c r="B105">
+        <v>0.91797794127200771</v>
+      </c>
+      <c r="C105">
+        <v>0.98288200322222874</v>
+      </c>
+      <c r="D105">
+        <v>0.99935090561648388</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>4.3782837127845885E-4</v>
+      </c>
+      <c r="B106">
+        <v>0.8768782173403854</v>
+      </c>
+      <c r="C106">
+        <v>0.99601273903290388</v>
+      </c>
+      <c r="D106">
+        <v>0.99978108581436065</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2.5235070164466824E-4</v>
+      </c>
+      <c r="B109">
+        <v>0.74002355060671443</v>
+      </c>
+      <c r="C109">
+        <v>0.99877715904354614</v>
+      </c>
+      <c r="D109">
+        <v>0.99987382464917762</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1.2283592011329807E-4</v>
+      </c>
+      <c r="B110">
+        <v>0.93379066503849495</v>
+      </c>
+      <c r="C110">
+        <v>0.99802191328822176</v>
+      </c>
+      <c r="D110">
+        <v>0.99993858203994335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2.2769015923131803E-5</v>
+      </c>
+      <c r="B111">
+        <v>0.49998861523281835</v>
+      </c>
+      <c r="C111">
+        <v>0.99993169450751473</v>
+      </c>
+      <c r="D111">
+        <v>0.99998861549203855</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>8.2434435867286947E-4</v>
+      </c>
+      <c r="B112">
+        <v>0.80989513555270409</v>
+      </c>
+      <c r="C112">
+        <v>0.99484039556466719</v>
+      </c>
+      <c r="D112">
+        <v>0.99958782782066347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2.3599311455383418E-4</v>
+      </c>
+      <c r="B113">
+        <v>0.92031983610198864</v>
+      </c>
+      <c r="C113">
+        <v>0.99680465934358098</v>
+      </c>
+      <c r="D113">
+        <v>0.99988200344272293</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2.5446263852309884E-5</v>
+      </c>
+      <c r="B114">
+        <v>0.92981183596440153</v>
+      </c>
+      <c r="C114">
+        <v>0.99961201086650231</v>
+      </c>
+      <c r="D114">
+        <v>0.99998727686807398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>4.5523347786996255E-5</v>
+      </c>
+      <c r="B115">
+        <v>0.4999772372898717</v>
+      </c>
+      <c r="C115">
+        <v>0.9998634361737645</v>
+      </c>
+      <c r="D115">
+        <v>0.99997723832610641</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>6.1664446746583789E-5</v>
+      </c>
+      <c r="B116">
+        <v>0.83330249540514878</v>
+      </c>
+      <c r="C116">
+        <v>0.99956842112034994</v>
+      </c>
+      <c r="D116">
+        <v>0.99996916777662681</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1.2710325626437478E-4</v>
+      </c>
+      <c r="B117">
+        <v>0.93963665407730124</v>
+      </c>
+      <c r="C117">
+        <v>0.99778697074506983</v>
+      </c>
+      <c r="D117">
+        <v>0.9999364483718679</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>5.6382913525770669E-4</v>
+      </c>
+      <c r="B118">
+        <v>0.613358662298364</v>
+      </c>
+      <c r="C118">
+        <v>0.99797895174461249</v>
+      </c>
+      <c r="D118">
+        <v>0.99971808543237117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>4.2475728155339805E-4</v>
+      </c>
+      <c r="B119">
+        <v>0.83484690518560833</v>
+      </c>
+      <c r="C119">
+        <v>0.99700418839005589</v>
+      </c>
+      <c r="D119">
+        <v>0.99978762135922339</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>4.3385830187860641E-5</v>
+      </c>
+      <c r="B120">
+        <v>0.71426401972345643</v>
+      </c>
+      <c r="C120">
+        <v>0.99980477717575778</v>
+      </c>
+      <c r="D120">
+        <v>0.9999783070849062</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>5.8342984520740708E-3</v>
+      </c>
+      <c r="B121">
+        <v>0.82260042268876155</v>
+      </c>
+      <c r="C121">
+        <v>0.96131606354422472</v>
+      </c>
+      <c r="D121">
+        <v>0.99708285077396297</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>7.3121472647300657E-3</v>
+      </c>
+      <c r="B122">
+        <v>0.82805815603258659</v>
+      </c>
+      <c r="C122">
+        <v>0.95022787878570403</v>
+      </c>
+      <c r="D122">
+        <v>0.99634392636763491</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>3.831417624521073E-3</v>
+      </c>
+      <c r="B123">
+        <v>0.84529784129725682</v>
+      </c>
+      <c r="C123">
+        <v>0.97144424684165431</v>
+      </c>
+      <c r="D123">
+        <v>0.99808429118773945</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>8.7743527418701443E-3</v>
+      </c>
+      <c r="B124">
+        <v>0.82362367508337653</v>
+      </c>
+      <c r="C124">
+        <v>0.9415944022839059</v>
+      </c>
+      <c r="D124">
+        <v>0.99561282362906489</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>3.8263078510756528E-3</v>
+      </c>
+      <c r="B125">
+        <v>0.77606928126544417</v>
+      </c>
+      <c r="C125">
+        <v>0.97911023861203661</v>
+      </c>
+      <c r="D125">
+        <v>0.99808684607446208</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>7.355537248440626E-4</v>
+      </c>
+      <c r="B126">
+        <v>0.82727257706555146</v>
+      </c>
+      <c r="C126">
+        <v>0.99500787719337747</v>
+      </c>
+      <c r="D126">
+        <v>0.99963222313757805</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2.7068832173240526E-3</v>
+      </c>
+      <c r="B127">
+        <v>0.8030156449973368</v>
+      </c>
+      <c r="C127">
+        <v>0.98356767049053628</v>
+      </c>
+      <c r="D127">
+        <v>0.99864655839133809</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>8.8153221714865546E-3</v>
+      </c>
+      <c r="B128">
+        <v>0.81900349773764969</v>
+      </c>
+      <c r="C128">
+        <v>0.94257279408282102</v>
+      </c>
+      <c r="D128">
+        <v>0.9955923389142568</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>7.7861952861952854E-3</v>
+      </c>
+      <c r="B129">
+        <v>0.77296808383058235</v>
+      </c>
+      <c r="C129">
+        <v>0.95799003201718413</v>
+      </c>
+      <c r="D129">
+        <v>0.99610690235690236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>1.2767436088359396E-2</v>
+      </c>
+      <c r="B130">
+        <v>0.82826152142548504</v>
+      </c>
+      <c r="C130">
+        <v>0.91308121421259536</v>
+      </c>
+      <c r="D130">
+        <v>0.99361628195582041</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>3.2424365757699092E-3</v>
+      </c>
+      <c r="B131">
+        <v>0.78022809982076213</v>
+      </c>
+      <c r="C131">
+        <v>0.98202241092707765</v>
+      </c>
+      <c r="D131">
+        <v>0.99837878171211514</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>1.2457614624797287E-3</v>
+      </c>
+      <c r="B132">
+        <v>0.87308056837571224</v>
+      </c>
+      <c r="C132">
+        <v>0.98894884693326568</v>
+      </c>
+      <c r="D132">
+        <v>0.99937711926876005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>3.1794265777552689E-3</v>
+      </c>
+      <c r="B133">
+        <v>0.80690113633249716</v>
+      </c>
+      <c r="C133">
+        <v>0.98036793528418054</v>
+      </c>
+      <c r="D133">
+        <v>0.99841028671112242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>9.6261921454723507E-4</v>
+      </c>
+      <c r="B135">
+        <v>0.71691097232244994</v>
+      </c>
+      <c r="C135">
+        <v>0.99564427955694235</v>
+      </c>
+      <c r="D135">
+        <v>0.99951869039272645</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2.5653716076878656E-3</v>
+      </c>
+      <c r="B136">
+        <v>0.8176664826520923</v>
+      </c>
+      <c r="C136">
+        <v>0.98337836741711138</v>
+      </c>
+      <c r="D136">
+        <v>0.99871731419615606</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>1.436958574537094E-3</v>
+      </c>
+      <c r="B137">
+        <v>0.89952945009219187</v>
+      </c>
+      <c r="C137">
+        <v>0.98435286162762103</v>
+      </c>
+      <c r="D137">
+        <v>0.99928152071273146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>6.1445158201332648E-3</v>
+      </c>
+      <c r="B138">
+        <v>0.91288330862972411</v>
+      </c>
+      <c r="C138">
+        <v>0.92340761034727226</v>
+      </c>
+      <c r="D138">
+        <v>0.9969277420899334</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2.1858728755280478E-3</v>
+      </c>
+      <c r="B139">
+        <v>0.7950826944507291</v>
+      </c>
+      <c r="C139">
+        <v>0.98715578043011909</v>
+      </c>
+      <c r="D139">
+        <v>0.99890706356223602</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2.0859333214476731E-3</v>
+      </c>
+      <c r="B140">
+        <v>0.76864789026876168</v>
+      </c>
+      <c r="C140">
+        <v>0.98892009914718471</v>
+      </c>
+      <c r="D140">
+        <v>0.9989570333392761</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>6.8861038424459446E-5</v>
+      </c>
+      <c r="B141">
+        <v>0.64702438965106679</v>
+      </c>
+      <c r="C141">
+        <v>0.99973605646111163</v>
+      </c>
+      <c r="D141">
+        <v>0.99996556948078774</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>6.9549320403783482E-5</v>
+      </c>
+      <c r="B142">
+        <v>0.75905970993895744</v>
+      </c>
+      <c r="C142">
+        <v>0.9996423597462567</v>
+      </c>
+      <c r="D142">
+        <v>0.99996522533979804</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>8.5178875638841563E-5</v>
+      </c>
+      <c r="B143">
+        <v>0.72220113037795575</v>
+      </c>
+      <c r="C143">
+        <v>0.99960822808913286</v>
+      </c>
+      <c r="D143">
+        <v>0.99995741056218046</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>3.3189512114171921E-5</v>
+      </c>
+      <c r="B145">
+        <v>0.7777611817823914</v>
+      </c>
+      <c r="C145">
+        <v>0.99981746993804588</v>
+      </c>
+      <c r="D145">
+        <v>0.99998340524394291</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>6.3684126731412198E-5</v>
+      </c>
+      <c r="B146">
+        <v>0.74996815388044968</v>
+      </c>
+      <c r="C146">
+        <v>0.99968161586735493</v>
+      </c>
+      <c r="D146">
+        <v>0.99996815793663429</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>4.820283754036988E-5</v>
+      </c>
+      <c r="B147">
+        <v>0.7599758961606603</v>
+      </c>
+      <c r="C147">
+        <v>0.99975097449894346</v>
+      </c>
+      <c r="D147">
+        <v>0.99997589858122982</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2.5381140120814226E-5</v>
+      </c>
+      <c r="B148">
+        <v>0.66665397561343609</v>
+      </c>
+      <c r="C148">
+        <v>0.99989847898262929</v>
+      </c>
+      <c r="D148">
+        <v>0.99998730942993963</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>8.2805136929585513E-5</v>
+      </c>
+      <c r="B150">
+        <v>0.60714285714285732</v>
+      </c>
+      <c r="C150">
+        <v>0.99970644348097493</v>
+      </c>
+      <c r="D150">
+        <v>0.99995859743153537</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>3.2641763177479798E-5</v>
+      </c>
+      <c r="B151">
+        <v>0.49999412441358376</v>
+      </c>
+      <c r="C151">
+        <v>0.99990207765120531</v>
+      </c>
+      <c r="D151">
+        <v>0.99998367911841135</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>4.0989206175707065E-5</v>
+      </c>
+      <c r="B152">
+        <v>0.77775728128438604</v>
+      </c>
+      <c r="C152">
+        <v>0.99977457805731329</v>
+      </c>
+      <c r="D152">
+        <v>0.99997950539691216</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>4.2847349177330894E-5</v>
+      </c>
+      <c r="B153">
+        <v>0.75998186563170123</v>
+      </c>
+      <c r="C153">
+        <v>0.99977863954675161</v>
+      </c>
+      <c r="D153">
+        <v>0.99997857632541132</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>8.3861661802690288E-5</v>
+      </c>
+      <c r="B154">
+        <v>0.78719210345714674</v>
+      </c>
+      <c r="C154">
+        <v>0.99952207323753961</v>
+      </c>
+      <c r="D154">
+        <v>0.99995806916909868</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>5.7110222729868647E-5</v>
+      </c>
+      <c r="B155">
+        <v>0.74997144162668483</v>
+      </c>
+      <c r="C155">
+        <v>0.9997144782405486</v>
+      </c>
+      <c r="D155">
+        <v>0.9999714448886351</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>2.0375728432291456E-5</v>
+      </c>
+      <c r="B158">
+        <v>0.33332314531342588</v>
+      </c>
+      <c r="C158">
+        <v>0.99994906156115615</v>
+      </c>
+      <c r="D158">
+        <v>0.99998981213578386</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>5.2801655859927767E-5</v>
+      </c>
+      <c r="B159">
+        <v>0.74997359638376082</v>
+      </c>
+      <c r="C159">
+        <v>0.99973601681283408</v>
+      </c>
+      <c r="D159">
+        <v>0.99997359917206996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>7.7136686207960505E-5</v>
+      </c>
+      <c r="B160">
+        <v>0.67933065256036274</v>
+      </c>
+      <c r="C160">
+        <v>0.99968241289836401</v>
+      </c>
+      <c r="D160">
+        <v>0.99996143165689599</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>7.0182826262413592E-5</v>
+      </c>
+      <c r="B162">
+        <v>0.79483669745452623</v>
+      </c>
+      <c r="C162">
+        <v>0.99958773935166445</v>
+      </c>
+      <c r="D162">
+        <v>0.99996490858686882</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>8.9944234574563771E-5</v>
+      </c>
+      <c r="B163">
+        <v>0.83328834907782279</v>
+      </c>
+      <c r="C163">
+        <v>0.9993705440673194</v>
+      </c>
+      <c r="D163">
+        <v>0.99995502788271273</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>3.8229807015934184E-5</v>
+      </c>
+      <c r="B164">
+        <v>0.66664755066695713</v>
+      </c>
+      <c r="C164">
+        <v>0.99984708881028606</v>
+      </c>
+      <c r="D164">
+        <v>0.99998088509649197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>6.5735106303057618E-5</v>
+      </c>
+      <c r="B165">
+        <v>0.85103095497919967</v>
+      </c>
+      <c r="C165">
+        <v>0.99949300233083971</v>
+      </c>
+      <c r="D165">
+        <v>0.99996713244684854</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>1.9291239847985028E-5</v>
+      </c>
+      <c r="B166">
+        <v>0.49999035419399657</v>
+      </c>
+      <c r="C166">
+        <v>0.9999421273969118</v>
+      </c>
+      <c r="D166">
+        <v>0.999990354380076</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>4.2778918548939082E-5</v>
+      </c>
+      <c r="B167">
+        <v>0.82756481478339605</v>
+      </c>
+      <c r="C167">
+        <v>0.99970913596510647</v>
+      </c>
+      <c r="D167">
+        <v>0.99997861054072557</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>2.7500733352889409E-5</v>
+      </c>
+      <c r="B168">
+        <v>0.49998624925516805</v>
+      </c>
+      <c r="C168">
+        <v>0.99991750006881241</v>
+      </c>
+      <c r="D168">
+        <v>0.99998624963332361</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>6.3782628801046029E-5</v>
+      </c>
+      <c r="B169">
+        <v>0.82219032518585566</v>
+      </c>
+      <c r="C169">
+        <v>0.99957750851298766</v>
+      </c>
+      <c r="D169">
+        <v>0.99996810868559949</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7.8030786692204012E-5</v>
+      </c>
+      <c r="B170">
+        <v>0.85710383109119359</v>
+      </c>
+      <c r="C170">
+        <v>0.99937590897095607</v>
+      </c>
+      <c r="D170">
+        <v>0.99996098460665395</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>5.9314619570858731E-5</v>
+      </c>
+      <c r="B171">
+        <v>0.87298620877796584</v>
+      </c>
+      <c r="C171">
+        <v>0.99947369536196573</v>
+      </c>
+      <c r="D171">
+        <v>0.99997034269021456</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>7.9619102215003427E-5</v>
+      </c>
+      <c r="B172">
+        <v>0.86838123103234344</v>
+      </c>
+      <c r="C172">
+        <v>0.99931546513628988</v>
+      </c>
+      <c r="D172">
+        <v>0.99996019044889251</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>4.4091710758377428E-5</v>
+      </c>
+      <c r="B173">
+        <v>0.87644073971096159</v>
+      </c>
+      <c r="C173">
+        <v>0.99959923046863897</v>
+      </c>
+      <c r="D173">
+        <v>0.99997795414462087</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>4.1112335345096942E-5</v>
+      </c>
+      <c r="B174">
+        <v>0.8147942563650864</v>
+      </c>
+      <c r="C174">
+        <v>0.99973690738748322</v>
+      </c>
+      <c r="D174">
+        <v>0.99997944383232751</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>1.6574677208161372E-5</v>
+      </c>
+      <c r="B175">
+        <v>0.33332504589170803</v>
+      </c>
+      <c r="C175">
+        <v>0.99995856389075943</v>
+      </c>
+      <c r="D175">
+        <v>0.99999171266139597</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>7.6513435759319339E-5</v>
+      </c>
+      <c r="B176">
+        <v>0.85290290979779892</v>
+      </c>
+      <c r="C176">
+        <v>0.99940333640693446</v>
+      </c>
+      <c r="D176">
+        <v>0.9999617432821204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>5.6713225524192241E-5</v>
+      </c>
+      <c r="B177">
+        <v>0.85103546777450367</v>
+      </c>
+      <c r="C177">
+        <v>0.99956257369097268</v>
+      </c>
+      <c r="D177">
+        <v>0.99997164338723787</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>8.2873386040806856E-5</v>
+      </c>
+      <c r="B178">
+        <v>0.85710140842735283</v>
+      </c>
+      <c r="C178">
+        <v>0.99933718804562555</v>
+      </c>
+      <c r="D178">
+        <v>0.99995856330697963</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>6.7392256629713243E-5</v>
+      </c>
+      <c r="B179">
+        <v>0.84612014264362556</v>
+      </c>
+      <c r="C179">
+        <v>0.99949465856074937</v>
+      </c>
+      <c r="D179">
+        <v>0.99996630387168517</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>7.0182826262413592E-5</v>
+      </c>
+      <c r="B182">
+        <v>0.79483669745452623</v>
+      </c>
+      <c r="C182">
+        <v>0.99958773935166445</v>
+      </c>
+      <c r="D182">
+        <v>0.99996490858686882</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>8.9944234574563771E-5</v>
+      </c>
+      <c r="B183">
+        <v>0.83328834907782279</v>
+      </c>
+      <c r="C183">
+        <v>0.9993705440673194</v>
+      </c>
+      <c r="D183">
+        <v>0.99995502788271273</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>3.8229807015934184E-5</v>
+      </c>
+      <c r="B184">
+        <v>0.66664755066695713</v>
+      </c>
+      <c r="C184">
+        <v>0.99984708881028606</v>
+      </c>
+      <c r="D184">
+        <v>0.99998088509649197</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>6.5735106303057618E-5</v>
+      </c>
+      <c r="B185">
+        <v>0.85103095497919967</v>
+      </c>
+      <c r="C185">
+        <v>0.99949300233083971</v>
+      </c>
+      <c r="D185">
+        <v>0.99996713244684854</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>1.9291239847985028E-5</v>
+      </c>
+      <c r="B186">
+        <v>0.49999035419399657</v>
+      </c>
+      <c r="C186">
+        <v>0.9999421273969118</v>
+      </c>
+      <c r="D186">
+        <v>0.999990354380076</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>4.2778918548939082E-5</v>
+      </c>
+      <c r="B187">
+        <v>0.82756481478339605</v>
+      </c>
+      <c r="C187">
+        <v>0.99970913596510647</v>
+      </c>
+      <c r="D187">
+        <v>0.99997861054072557</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>2.7500733352889409E-5</v>
+      </c>
+      <c r="B188">
+        <v>0.49998624925516805</v>
+      </c>
+      <c r="C188">
+        <v>0.99991750006881241</v>
+      </c>
+      <c r="D188">
+        <v>0.99998624963332361</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>6.3782628801046029E-5</v>
+      </c>
+      <c r="B189">
+        <v>0.82219032518585566</v>
+      </c>
+      <c r="C189">
+        <v>0.99957750851298766</v>
+      </c>
+      <c r="D189">
+        <v>0.99996810868559949</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>7.8030786692204012E-5</v>
+      </c>
+      <c r="B190">
+        <v>0.85710383109119359</v>
+      </c>
+      <c r="C190">
+        <v>0.99937590897095607</v>
+      </c>
+      <c r="D190">
+        <v>0.99996098460665395</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>5.9314619570858731E-5</v>
+      </c>
+      <c r="B191">
+        <v>0.87298620877796584</v>
+      </c>
+      <c r="C191">
+        <v>0.99947369536196573</v>
+      </c>
+      <c r="D191">
+        <v>0.99997034269021456</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>7.9619102215003427E-5</v>
+      </c>
+      <c r="B192">
+        <v>0.86838123103234344</v>
+      </c>
+      <c r="C192">
+        <v>0.99931546513628988</v>
+      </c>
+      <c r="D192">
+        <v>0.99996019044889251</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>4.4091710758377428E-5</v>
+      </c>
+      <c r="B193">
+        <v>0.87644073971096159</v>
+      </c>
+      <c r="C193">
+        <v>0.99959923046863897</v>
+      </c>
+      <c r="D193">
+        <v>0.99997795414462087</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>4.1112335345096942E-5</v>
+      </c>
+      <c r="B194">
+        <v>0.8147942563650864</v>
+      </c>
+      <c r="C194">
+        <v>0.99973690738748322</v>
+      </c>
+      <c r="D194">
+        <v>0.99997944383232751</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>1.6574677208161372E-5</v>
+      </c>
+      <c r="B195">
+        <v>0.33332504589170803</v>
+      </c>
+      <c r="C195">
+        <v>0.99995856389075943</v>
+      </c>
+      <c r="D195">
+        <v>0.99999171266139597</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>7.6513435759319339E-5</v>
+      </c>
+      <c r="B196">
+        <v>0.85290290979779892</v>
+      </c>
+      <c r="C196">
+        <v>0.99940333640693446</v>
+      </c>
+      <c r="D196">
+        <v>0.9999617432821204</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>5.6713225524192241E-5</v>
+      </c>
+      <c r="B197">
+        <v>0.85103546777450367</v>
+      </c>
+      <c r="C197">
+        <v>0.99956257369097268</v>
+      </c>
+      <c r="D197">
+        <v>0.99997164338723787</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>8.2873386040806856E-5</v>
+      </c>
+      <c r="B198">
+        <v>0.85710140842735283</v>
+      </c>
+      <c r="C198">
+        <v>0.99933718804562555</v>
+      </c>
+      <c r="D198">
+        <v>0.99995856330697963</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>6.7392256629713243E-5</v>
+      </c>
+      <c r="B199">
+        <v>0.84612014264362556</v>
+      </c>
+      <c r="C199">
+        <v>0.99949465856074937</v>
+      </c>
+      <c r="D199">
+        <v>0.99996630387168517</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>0</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>0</v>
+      </c>
+      <c r="B206">
+        <v>0</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>0</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>0</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>4.2607221071827257E-6</v>
+      </c>
+      <c r="B216">
+        <v>-2.1303655920392503E-6</v>
+      </c>
+      <c r="C216">
+        <v>0.9999914785830164</v>
+      </c>
+      <c r="D216">
+        <v>0.99999786963894643</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>0</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>1.4736221632773356E-5</v>
+      </c>
+      <c r="B221">
+        <v>0.49999263178060388</v>
+      </c>
+      <c r="C221">
+        <v>0.99995579198657014</v>
+      </c>
+      <c r="D221">
+        <v>0.99999263188918353</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>2.0844680235881092E-4</v>
+      </c>
+      <c r="B222">
+        <v>0.65549180168537391</v>
+      </c>
+      <c r="C222">
+        <v>0.99918661164867328</v>
+      </c>
+      <c r="D222">
+        <v>0.99989577659882067</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>6.5811954994747697E-4</v>
+      </c>
+      <c r="B223">
+        <v>0.73254724669667881</v>
+      </c>
+      <c r="C223">
+        <v>0.99688161895591942</v>
+      </c>
+      <c r="D223">
+        <v>0.99967094022502623</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>1.446445360526506E-4</v>
+      </c>
+      <c r="B224">
+        <v>0.22214989322862852</v>
+      </c>
+      <c r="C224">
+        <v>0.99966942213234378</v>
+      </c>
+      <c r="D224">
+        <v>0.99992767773197366</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>1.6796585003711953E-3</v>
+      </c>
+      <c r="B225">
+        <v>0.73337189924806512</v>
+      </c>
+      <c r="C225">
+        <v>0.99202353230962514</v>
+      </c>
+      <c r="D225">
+        <v>0.99916017074981445</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>9.9129695183674442E-4</v>
+      </c>
+      <c r="B226">
+        <v>0.74975408535674337</v>
+      </c>
+      <c r="C226">
+        <v>0.99504937758848677</v>
+      </c>
+      <c r="D226">
+        <v>0.99950435152408168</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>2.4796230972892123E-4</v>
+      </c>
+      <c r="B227">
+        <v>0.70463787152099622</v>
+      </c>
+      <c r="C227">
+        <v>0.99891257952894685</v>
+      </c>
+      <c r="D227">
+        <v>0.99987601884513555</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>6.5920231563399898E-4</v>
+      </c>
+      <c r="B228">
+        <v>0.71608792575607338</v>
+      </c>
+      <c r="C228">
+        <v>0.99701937847719668</v>
+      </c>
+      <c r="D228">
+        <v>0.99967039884218312</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>6.1965998891902138E-4</v>
+      </c>
+      <c r="B229">
+        <v>0.73070247094771623</v>
+      </c>
+      <c r="C229">
+        <v>0.99707970031847926</v>
+      </c>
+      <c r="D229">
+        <v>0.9996901700055405</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>1.2468827930174563E-4</v>
+      </c>
+      <c r="B230">
+        <v>0.66660431086445937</v>
+      </c>
+      <c r="C230">
+        <v>0.99950133239221162</v>
+      </c>
+      <c r="D230">
+        <v>0.99993765586034911</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>1.3517558342747348E-4</v>
+      </c>
+      <c r="B232">
+        <v>0.74993239393090638</v>
+      </c>
+      <c r="C232">
+        <v>0.99932428653480776</v>
+      </c>
+      <c r="D232">
+        <v>0.99993241220828633</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>5.4741279029984532E-5</v>
+      </c>
+      <c r="B233">
+        <v>0.49997262786209906</v>
+      </c>
+      <c r="C233">
+        <v>0.99983578515273308</v>
+      </c>
+      <c r="D233">
+        <v>0.99997262936048503</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>1.3264358668258389E-4</v>
+      </c>
+      <c r="B234">
+        <v>0.47612414599878194</v>
+      </c>
+      <c r="C234">
+        <v>0.99961417740453207</v>
+      </c>
+      <c r="D234">
+        <v>0.99993367820665868</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>1.7411739571649841E-3</v>
+      </c>
+      <c r="B235">
+        <v>0.71614061534532691</v>
+      </c>
+      <c r="C235">
+        <v>0.99212792645483294</v>
+      </c>
+      <c r="D235">
+        <v>0.99912941302141767</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>9.2637624771300858E-5</v>
+      </c>
+      <c r="B236">
+        <v>0.55550923191544388</v>
+      </c>
+      <c r="C236">
+        <v>0.99969895802372555</v>
+      </c>
+      <c r="D236">
+        <v>0.9999536811876143</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>1.2539971158066337E-4</v>
+      </c>
+      <c r="B237">
+        <v>0.62493728965906459</v>
+      </c>
+      <c r="C237">
+        <v>0.99954027269404799</v>
+      </c>
+      <c r="D237">
+        <v>0.99993730014420978</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>2.5175473047138556E-4</v>
+      </c>
+      <c r="B238">
+        <v>0.70575642167949648</v>
+      </c>
+      <c r="C238">
+        <v>0.99889270890533832</v>
+      </c>
+      <c r="D238">
+        <v>0.99987412263476427</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>9.8349139445029853E-5</v>
+      </c>
+      <c r="B239">
+        <v>0.4614892824775006</v>
+      </c>
+      <c r="C239">
+        <v>0.99971902881150132</v>
+      </c>
+      <c r="D239">
+        <v>0.99995082543027747</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>9.9150609776250121E-5</v>
+      </c>
+      <c r="B240">
+        <v>0.49995041977920274</v>
+      </c>
+      <c r="C240">
+        <v>0.99970257766320125</v>
+      </c>
+      <c r="D240">
+        <v>0.99995042469511186</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>0</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>0</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>0</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>0</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>0</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>1.2627219233780336E-5</v>
+      </c>
+      <c r="B248">
+        <v>0.33332701966392331</v>
+      </c>
+      <c r="C248">
+        <v>0.99996843229073962</v>
+      </c>
+      <c r="D248">
+        <v>0.99999368639038311</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>0</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>0</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>6.5876152832674573E-6</v>
+      </c>
+      <c r="B251">
+        <v>0.49999670617065989</v>
+      </c>
+      <c r="C251">
+        <v>0.99998023728434038</v>
+      </c>
+      <c r="D251">
+        <v>0.99999670619235825</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>7.1422078512343038E-5</v>
+      </c>
+      <c r="B252">
+        <v>0.60710714285714285</v>
+      </c>
+      <c r="C252">
+        <v>0.99974679789412679</v>
+      </c>
+      <c r="D252">
+        <v>0.99996428896074385</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>0</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>0</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>0</v>
+      </c>
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>6.2938207268104172E-6</v>
+      </c>
+      <c r="B257">
+        <v>0.66666351972659388</v>
+      </c>
+      <c r="C257">
+        <v>0.99997482493495982</v>
+      </c>
+      <c r="D257">
+        <v>0.99999685308963659</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>9.3970831453916709E-6</v>
+      </c>
+      <c r="B259">
+        <v>0.33332863475864599</v>
+      </c>
+      <c r="C259">
+        <v>0.99997650747978506</v>
+      </c>
+      <c r="D259">
+        <v>0.9999953014584273</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>0</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>0</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>0</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>0</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>0</v>
+      </c>
+      <c r="B265">
+        <v>0</v>
+      </c>
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>0</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>0</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>0</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271">
+        <v>0</v>
+      </c>
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>0</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>0</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>0</v>
+      </c>
+      <c r="B274">
+        <v>0</v>
+      </c>
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>0</v>
+      </c>
+      <c r="B277">
+        <v>0</v>
+      </c>
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>0</v>
+      </c>
+      <c r="B280">
+        <v>0</v>
+      </c>
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>0</v>
+      </c>
+      <c r="B281">
+        <v>0</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>0</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>0</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>0</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>0</v>
+      </c>
+      <c r="B286">
+        <v>0</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>0</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>0</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>0</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>0</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>0</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>0</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>0</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>0</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>0</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>0</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>0</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>0</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>0</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>0</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>0</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>0</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>0</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>0</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>0</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>0</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>0</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>0</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>0</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>0</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>0</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>0</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>0</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>0</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>1.2922400982102474E-4</v>
+      </c>
+      <c r="B322">
+        <v>0.53118537908781116</v>
+      </c>
+      <c r="C322">
+        <v>0.99959515280055433</v>
+      </c>
+      <c r="D322">
+        <v>0.99993538799508952</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>6.3121531902196056E-5</v>
+      </c>
+      <c r="B323">
+        <v>0.42102106909239734</v>
+      </c>
+      <c r="C323">
+        <v>0.99982786029543058</v>
+      </c>
+      <c r="D323">
+        <v>0.99996843923404888</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>0</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>0</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>0</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>0</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>1.0988045007032349E-5</v>
+      </c>
+      <c r="B328">
+        <v>-5.4940526879652792E-6</v>
+      </c>
+      <c r="C328">
+        <v>0.99997802409109171</v>
+      </c>
+      <c r="D328">
+        <v>0.99999450597749651</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>0</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>0</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>3.0815691350035436E-5</v>
+      </c>
+      <c r="B331">
+        <v>0.92855601740141269</v>
+      </c>
+      <c r="C331">
+        <v>0.99953785864082589</v>
+      </c>
+      <c r="D331">
+        <v>0.999984592154325</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>8.4402876028000652E-5</v>
+      </c>
+      <c r="B332">
+        <v>0.33329112922370807</v>
+      </c>
+      <c r="C332">
+        <v>0.99978900794810155</v>
+      </c>
+      <c r="D332">
+        <v>0.99995779856198597</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>1.5200687071055611E-5</v>
+      </c>
+      <c r="B333">
+        <v>-7.6004013011887025E-6</v>
+      </c>
+      <c r="C333">
+        <v>0.99996959897244919</v>
+      </c>
+      <c r="D333">
+        <v>0.99999239965646447</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>6.0391943714708455E-5</v>
+      </c>
+      <c r="B334">
+        <v>0.28568408846585908</v>
+      </c>
+      <c r="C334">
+        <v>0.99985506655651479</v>
+      </c>
+      <c r="D334">
+        <v>0.99996980402814273</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>0</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>0</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>0</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>0</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>0</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>0</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>1.9448442179781398E-5</v>
+      </c>
+      <c r="B341">
+        <v>-9.7243156512860391E-6</v>
+      </c>
+      <c r="C341">
+        <v>0.99996110368300317</v>
+      </c>
+      <c r="D341">
+        <v>0.99999027577891009</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>5.078204346942921E-5</v>
+      </c>
+      <c r="B342">
+        <v>0.16664127487126362</v>
+      </c>
+      <c r="C342">
+        <v>0.99988828393993079</v>
+      </c>
+      <c r="D342">
+        <v>0.99997460897826529</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>2.0439448134900359E-5</v>
+      </c>
+      <c r="B343">
+        <v>-1.0219828511277583E-5</v>
+      </c>
+      <c r="C343">
+        <v>0.99995912173038681</v>
+      </c>
+      <c r="D343">
+        <v>0.99998978027593255</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>0</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>0</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>0</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>0</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>0</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>0</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>0</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>0</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>0</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>0</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>0</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>0</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>0</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>0</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>0</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>0</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>0</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>0</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>1.241731738185639E-3</v>
+      </c>
+      <c r="B362">
+        <v>0.87702855252723388</v>
+      </c>
+      <c r="C362">
+        <v>0.98866254054326375</v>
+      </c>
+      <c r="D362">
+        <v>0.99937913413090718</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>4.1647331786542922E-3</v>
+      </c>
+      <c r="B363">
+        <v>0.91000841961926326</v>
+      </c>
+      <c r="C363">
+        <v>0.94957467115002614</v>
+      </c>
+      <c r="D363">
+        <v>0.99791763341067286</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>4.7146401985111662E-4</v>
+      </c>
+      <c r="B364">
+        <v>0.9417051309912623</v>
+      </c>
+      <c r="C364">
+        <v>0.99145984966966116</v>
+      </c>
+      <c r="D364">
+        <v>0.99976426799007445</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>8.7926172776211231E-3</v>
+      </c>
+      <c r="B365">
+        <v>0.90743572810036466</v>
+      </c>
+      <c r="C365">
+        <v>0.89629623664089175</v>
+      </c>
+      <c r="D365">
+        <v>0.99560369136118942</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>3.1391083521444697E-3</v>
+      </c>
+      <c r="B366">
+        <v>0.87905406476383185</v>
+      </c>
+      <c r="C366">
+        <v>0.97091627989231433</v>
+      </c>
+      <c r="D366">
+        <v>0.9984304458239277</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>4.5656309448319595E-4</v>
+      </c>
+      <c r="B367">
+        <v>0.75977150111075864</v>
+      </c>
+      <c r="C367">
+        <v>0.99764310858894656</v>
+      </c>
+      <c r="D367">
+        <v>0.99977171845275847</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>3.5307433014295205E-3</v>
+      </c>
+      <c r="B368">
+        <v>0.77241646186817281</v>
+      </c>
+      <c r="C368">
+        <v>0.98096781919786391</v>
+      </c>
+      <c r="D368">
+        <v>0.99823462834928522</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>3.0467760298904763E-4</v>
+      </c>
+      <c r="B369">
+        <v>0.85590810585994781</v>
+      </c>
+      <c r="C369">
+        <v>0.99758094789328688</v>
+      </c>
+      <c r="D369">
+        <v>0.99984766119850543</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>5.9753244348689641E-4</v>
+      </c>
+      <c r="B370">
+        <v>0.78776051351399468</v>
+      </c>
+      <c r="C370">
+        <v>0.99658745573035912</v>
+      </c>
+      <c r="D370">
+        <v>0.99970123377825659</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>1.7407349382909465E-4</v>
+      </c>
+      <c r="B371">
+        <v>0.66657960718763054</v>
+      </c>
+      <c r="C371">
+        <v>0.9993038726833805</v>
+      </c>
+      <c r="D371">
+        <v>0.99991296325308543</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>1.7331905999898047E-3</v>
+      </c>
+      <c r="B372">
+        <v>0.8397536668602964</v>
+      </c>
+      <c r="C372">
+        <v>0.9874540238958206</v>
+      </c>
+      <c r="D372">
+        <v>0.99913340470000511</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>4.8537612381927848E-3</v>
+      </c>
+      <c r="B373">
+        <v>0.72477446308877225</v>
+      </c>
+      <c r="C373">
+        <v>0.9775347716603755</v>
+      </c>
+      <c r="D373">
+        <v>0.99757311938090354</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>2.064529515509908E-3</v>
+      </c>
+      <c r="B374">
+        <v>0.6753908010986559</v>
+      </c>
+      <c r="C374">
+        <v>0.99157975737700887</v>
+      </c>
+      <c r="D374">
+        <v>0.99896773524224503</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>4.142305158867589E-4</v>
+      </c>
+      <c r="B375">
+        <v>0.72125391783577464</v>
+      </c>
+      <c r="C375">
+        <v>0.99809989142803723</v>
+      </c>
+      <c r="D375">
+        <v>0.99979288474205663</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>2.6925519869652869E-3</v>
+      </c>
+      <c r="B376">
+        <v>0.75671070671762664</v>
+      </c>
+      <c r="C376">
+        <v>0.98624741268169736</v>
+      </c>
+      <c r="D376">
+        <v>0.99865372400651742</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>4.8291969945134447E-3</v>
+      </c>
+      <c r="B377">
+        <v>0.79503055670875977</v>
+      </c>
+      <c r="C377">
+        <v>0.971633563881238</v>
+      </c>
+      <c r="D377">
+        <v>0.99758540150274322</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>1.6720130734777872E-3</v>
+      </c>
+      <c r="B378">
+        <v>0.76139880580845187</v>
+      </c>
+      <c r="C378">
+        <v>0.99132321882790153</v>
+      </c>
+      <c r="D378">
+        <v>0.99916399346326112</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>2.8371260320184653E-3</v>
+      </c>
+      <c r="B379">
+        <v>0.75523555537189291</v>
+      </c>
+      <c r="C379">
+        <v>0.98557967258524593</v>
+      </c>
+      <c r="D379">
+        <v>0.99858143698399071</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>7.3911043952434131E-5</v>
+      </c>
+      <c r="B380">
+        <v>0.82349244850208192</v>
+      </c>
+      <c r="C380">
+        <v>0.99950735287879622</v>
+      </c>
+      <c r="D380">
+        <v>0.99996304447802387</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>0</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381">
+        <v>1</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>1.241731738185639E-3</v>
+      </c>
+      <c r="B382">
+        <v>0.87702855252723388</v>
+      </c>
+      <c r="C382">
+        <v>0.98866254054326375</v>
+      </c>
+      <c r="D382">
+        <v>0.99937913413090718</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>4.1647331786542922E-3</v>
+      </c>
+      <c r="B383">
+        <v>0.91000841961926326</v>
+      </c>
+      <c r="C383">
+        <v>0.94957467115002614</v>
+      </c>
+      <c r="D383">
+        <v>0.99791763341067286</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>4.7146401985111662E-4</v>
+      </c>
+      <c r="B384">
+        <v>0.9417051309912623</v>
+      </c>
+      <c r="C384">
+        <v>0.99145984966966116</v>
+      </c>
+      <c r="D384">
+        <v>0.99976426799007445</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>8.7926172776211231E-3</v>
+      </c>
+      <c r="B385">
+        <v>0.90743572810036466</v>
+      </c>
+      <c r="C385">
+        <v>0.89629623664089175</v>
+      </c>
+      <c r="D385">
+        <v>0.99560369136118942</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>3.1391083521444697E-3</v>
+      </c>
+      <c r="B386">
+        <v>0.87905406476383185</v>
+      </c>
+      <c r="C386">
+        <v>0.97091627989231433</v>
+      </c>
+      <c r="D386">
+        <v>0.9984304458239277</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>4.5656309448319595E-4</v>
+      </c>
+      <c r="B387">
+        <v>0.75977150111075864</v>
+      </c>
+      <c r="C387">
+        <v>0.99764310858894656</v>
+      </c>
+      <c r="D387">
+        <v>0.99977171845275847</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>3.5307433014295205E-3</v>
+      </c>
+      <c r="B388">
+        <v>0.77241646186817281</v>
+      </c>
+      <c r="C388">
+        <v>0.98096781919786391</v>
+      </c>
+      <c r="D388">
+        <v>0.99823462834928522</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>3.0467760298904763E-4</v>
+      </c>
+      <c r="B389">
+        <v>0.85590810585994781</v>
+      </c>
+      <c r="C389">
+        <v>0.99758094789328688</v>
+      </c>
+      <c r="D389">
+        <v>0.99984766119850543</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>5.9753244348689641E-4</v>
+      </c>
+      <c r="B390">
+        <v>0.78776051351399468</v>
+      </c>
+      <c r="C390">
+        <v>0.99658745573035912</v>
+      </c>
+      <c r="D390">
+        <v>0.99970123377825659</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>1.7407349382909465E-4</v>
+      </c>
+      <c r="B391">
+        <v>0.66657960718763054</v>
+      </c>
+      <c r="C391">
+        <v>0.9993038726833805</v>
+      </c>
+      <c r="D391">
+        <v>0.99991296325308543</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>1.7331905999898047E-3</v>
+      </c>
+      <c r="B392">
+        <v>0.8397536668602964</v>
+      </c>
+      <c r="C392">
+        <v>0.9874540238958206</v>
+      </c>
+      <c r="D392">
+        <v>0.99913340470000511</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>4.8537612381927848E-3</v>
+      </c>
+      <c r="B393">
+        <v>0.72477446308877225</v>
+      </c>
+      <c r="C393">
+        <v>0.9775347716603755</v>
+      </c>
+      <c r="D393">
+        <v>0.99757311938090354</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>2.064529515509908E-3</v>
+      </c>
+      <c r="B394">
+        <v>0.6753908010986559</v>
+      </c>
+      <c r="C394">
+        <v>0.99157975737700887</v>
+      </c>
+      <c r="D394">
+        <v>0.99896773524224503</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>4.142305158867589E-4</v>
+      </c>
+      <c r="B395">
+        <v>0.72125391783577464</v>
+      </c>
+      <c r="C395">
+        <v>0.99809989142803723</v>
+      </c>
+      <c r="D395">
+        <v>0.99979288474205663</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>2.6925519869652869E-3</v>
+      </c>
+      <c r="B396">
+        <v>0.75671070671762664</v>
+      </c>
+      <c r="C396">
+        <v>0.98624741268169736</v>
+      </c>
+      <c r="D396">
+        <v>0.99865372400651742</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>4.8291969945134447E-3</v>
+      </c>
+      <c r="B397">
+        <v>0.79503055670875977</v>
+      </c>
+      <c r="C397">
+        <v>0.971633563881238</v>
+      </c>
+      <c r="D397">
+        <v>0.99758540150274322</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>1.6720130734777872E-3</v>
+      </c>
+      <c r="B398">
+        <v>0.76139880580845187</v>
+      </c>
+      <c r="C398">
+        <v>0.99132321882790153</v>
+      </c>
+      <c r="D398">
+        <v>0.99916399346326112</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>2.8371260320184653E-3</v>
+      </c>
+      <c r="B399">
+        <v>0.75523555537189291</v>
+      </c>
+      <c r="C399">
+        <v>0.98557967258524593</v>
+      </c>
+      <c r="D399">
+        <v>0.99858143698399071</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>7.3911043952434131E-5</v>
+      </c>
+      <c r="B400">
+        <v>0.82349244850208192</v>
+      </c>
+      <c r="C400">
+        <v>0.99950735287879622</v>
+      </c>
+      <c r="D400">
+        <v>0.99996304447802387</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>